--- a/input/onderwijsdoelen/ilearnextra/onderwijsdoelen-secundair.xlsx
+++ b/input/onderwijsdoelen/ilearnextra/onderwijsdoelen-secundair.xlsx
@@ -18,8 +18,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martin Vanbrabant</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin Vanbrabant:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter no-ondniv-link to avoid linking to the onderwijsstructuur</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="45">
   <si>
     <t/>
   </si>
@@ -61,9 +95,6 @@
   </si>
   <si>
     <t>Conceptuele kennis</t>
-  </si>
-  <si>
-    <t>Procedurele kennis</t>
   </si>
   <si>
     <t>Metacognitieve kennis</t>
@@ -123,7 +154,40 @@
     <t>Instruction</t>
   </si>
   <si>
-    <t>no-ondniv-link</t>
+    <t>Procedurele kennis</t>
+  </si>
+  <si>
+    <t>1ste graad</t>
+  </si>
+  <si>
+    <t>A-stroom</t>
+  </si>
+  <si>
+    <t>Onderwijsvorm</t>
+  </si>
+  <si>
+    <t>Finaliteit</t>
+  </si>
+  <si>
+    <t>2de graad</t>
+  </si>
+  <si>
+    <t>Finaliteit doorstroom</t>
+  </si>
+  <si>
+    <t>B-stroom</t>
+  </si>
+  <si>
+    <t>aso, kso, tso, bso</t>
+  </si>
+  <si>
+    <t>Finaliteit arbeidsmarkt</t>
+  </si>
+  <si>
+    <t>Dubbele finaliteit</t>
+  </si>
+  <si>
+    <t>3de graad</t>
   </si>
 </sst>
 </file>
@@ -133,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +210,19 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -502,24 +579,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ474"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="10" width="1" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
@@ -545,7 +623,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -568,11 +646,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -614,10 +692,10 @@
         <v>13</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="Z1" t="s">
         <v>0</v>
@@ -629,42 +707,39 @@
         <v>0</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="AH1" t="s">
         <v>0</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
@@ -672,26 +747,28 @@
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -699,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -728,17 +805,14 @@
       <c r="AJ2" s="5"/>
     </row>
     <row r="3" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
@@ -746,26 +820,28 @@
       <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -773,13 +849,13 @@
         <v>0</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -802,17 +878,14 @@
       <c r="AJ3" s="5"/>
     </row>
     <row r="4" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -820,26 +893,28 @@
       <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -847,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -875,27 +950,59 @@
       </c>
       <c r="AJ4" s="5"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+    <row r="5" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -908,31 +1015,67 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="5"/>
+      <c r="AH5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ5" s="5"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+    <row r="6" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -945,31 +1088,67 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="5"/>
+      <c r="AH6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ6" s="5"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+    <row r="7" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -982,31 +1161,67 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="5"/>
+      <c r="AH7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ7" s="5"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+    <row r="8" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -1019,22 +1234,67 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="5"/>
+      <c r="AH8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ8" s="5"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+    <row r="9" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -1047,31 +1307,67 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="5"/>
+      <c r="AH9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ9" s="5"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+    <row r="10" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -1084,31 +1380,67 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="5"/>
+      <c r="AH10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ10" s="5"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+    <row r="11" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -1121,31 +1453,67 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="5"/>
+      <c r="AH11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ11" s="5"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+    <row r="12" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -1158,31 +1526,67 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="5"/>
+      <c r="AH12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ12" s="5"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+    <row r="13" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -1195,31 +1599,67 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="5"/>
+      <c r="AH13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ13" s="5"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+    <row r="14" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -1232,31 +1672,67 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="5"/>
+      <c r="AH14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ14" s="5"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+    <row r="15" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -1269,31 +1745,67 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="5"/>
+      <c r="AH15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ15" s="5"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+    <row r="16" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -1306,31 +1818,67 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="5"/>
+      <c r="AH16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ16" s="5"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+    <row r="17" spans="2:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -1343,31 +1891,67 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="5"/>
+      <c r="AH17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+    <row r="18" spans="2:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -1380,31 +1964,67 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="5"/>
+      <c r="AH18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ18" s="5"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+    <row r="19" spans="2:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -1417,31 +2037,67 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="5"/>
+      <c r="AH19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ19" s="5"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+    <row r="20" spans="2:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -1454,31 +2110,67 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="5"/>
+      <c r="AH20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ20" s="5"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+    <row r="21" spans="2:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -1491,31 +2183,67 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="5"/>
+      <c r="AH21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ21" s="5"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+    <row r="22" spans="2:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -1528,31 +2256,67 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="5"/>
+      <c r="AH22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ22" s="5"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+    <row r="23" spans="2:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -1565,31 +2329,67 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="5"/>
+      <c r="AH23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ23" s="5"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+    <row r="24" spans="2:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -1602,31 +2402,67 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="5"/>
+      <c r="AH24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ24" s="5"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+    <row r="25" spans="2:36" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -1639,8 +2475,12 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="5"/>
+      <c r="AH25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>42247</v>
+      </c>
       <c r="AJ25" s="5"/>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.2">
@@ -18256,7 +19096,119 @@
       <c r="AI474" s="5"/>
       <c r="AJ474" s="5"/>
     </row>
+    <row r="475" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B475" s="3"/>
+      <c r="C475" s="3"/>
+      <c r="D475" s="3"/>
+      <c r="E475" s="3"/>
+      <c r="F475" s="3"/>
+      <c r="G475" s="3"/>
+      <c r="H475" s="3"/>
+      <c r="I475" s="3"/>
+      <c r="J475" s="3"/>
+      <c r="K475" s="3"/>
+      <c r="L475" s="3"/>
+      <c r="M475" s="3"/>
+      <c r="N475" s="3"/>
+      <c r="O475" s="3"/>
+      <c r="P475" s="3"/>
+      <c r="Q475" s="3"/>
+      <c r="R475" s="4"/>
+      <c r="S475" s="3"/>
+      <c r="T475" s="3"/>
+      <c r="U475" s="3"/>
+      <c r="V475" s="3"/>
+      <c r="W475" s="3"/>
+      <c r="X475" s="3"/>
+      <c r="Y475" s="3"/>
+      <c r="Z475" s="3"/>
+      <c r="AA475" s="3"/>
+      <c r="AB475" s="3"/>
+      <c r="AC475" s="3"/>
+      <c r="AD475" s="3"/>
+      <c r="AE475" s="3"/>
+      <c r="AF475" s="3"/>
+      <c r="AG475" s="3"/>
+      <c r="AH475" s="3"/>
+      <c r="AI475" s="5"/>
+      <c r="AJ475" s="5"/>
+    </row>
+    <row r="476" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B476" s="3"/>
+      <c r="C476" s="3"/>
+      <c r="D476" s="3"/>
+      <c r="E476" s="3"/>
+      <c r="F476" s="3"/>
+      <c r="G476" s="3"/>
+      <c r="H476" s="3"/>
+      <c r="I476" s="3"/>
+      <c r="J476" s="3"/>
+      <c r="K476" s="3"/>
+      <c r="L476" s="3"/>
+      <c r="M476" s="3"/>
+      <c r="N476" s="3"/>
+      <c r="O476" s="3"/>
+      <c r="P476" s="3"/>
+      <c r="Q476" s="3"/>
+      <c r="R476" s="4"/>
+      <c r="S476" s="3"/>
+      <c r="T476" s="3"/>
+      <c r="U476" s="3"/>
+      <c r="V476" s="3"/>
+      <c r="W476" s="3"/>
+      <c r="X476" s="3"/>
+      <c r="Y476" s="3"/>
+      <c r="Z476" s="3"/>
+      <c r="AA476" s="3"/>
+      <c r="AB476" s="3"/>
+      <c r="AC476" s="3"/>
+      <c r="AD476" s="3"/>
+      <c r="AE476" s="3"/>
+      <c r="AF476" s="3"/>
+      <c r="AG476" s="3"/>
+      <c r="AH476" s="3"/>
+      <c r="AI476" s="5"/>
+      <c r="AJ476" s="5"/>
+    </row>
+    <row r="477" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B477" s="3"/>
+      <c r="C477" s="3"/>
+      <c r="D477" s="3"/>
+      <c r="E477" s="3"/>
+      <c r="F477" s="3"/>
+      <c r="G477" s="3"/>
+      <c r="H477" s="3"/>
+      <c r="I477" s="3"/>
+      <c r="J477" s="3"/>
+      <c r="K477" s="3"/>
+      <c r="L477" s="3"/>
+      <c r="M477" s="3"/>
+      <c r="N477" s="3"/>
+      <c r="O477" s="3"/>
+      <c r="P477" s="3"/>
+      <c r="Q477" s="3"/>
+      <c r="R477" s="4"/>
+      <c r="S477" s="3"/>
+      <c r="T477" s="3"/>
+      <c r="U477" s="3"/>
+      <c r="V477" s="3"/>
+      <c r="W477" s="3"/>
+      <c r="X477" s="3"/>
+      <c r="Y477" s="3"/>
+      <c r="Z477" s="3"/>
+      <c r="AA477" s="3"/>
+      <c r="AB477" s="3"/>
+      <c r="AC477" s="3"/>
+      <c r="AD477" s="3"/>
+      <c r="AE477" s="3"/>
+      <c r="AF477" s="3"/>
+      <c r="AG477" s="3"/>
+      <c r="AH477" s="3"/>
+      <c r="AI477" s="5"/>
+      <c r="AJ477" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>